--- a/rapport.xlsx
+++ b/rapport.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,70 +470,65 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>prix_achat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>nom_medicament</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Code_EAN_13</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Prix_Public_De_Vente</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Stock_Actuel</t>
+          <t>date_commande</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>date_commande</t>
+          <t>date_reception</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>date_reception</t>
+          <t>id_fournisseur</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>id_fournisseur</t>
+          <t>montant_paye</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>montant_paye</t>
+          <t>date_paiement</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>date_paiement</t>
+          <t>quantite_retour</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>quantite_retour</t>
+          <t>date_retour</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>date_retour</t>
+          <t>prix_retour</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>prix_retour</t>
+          <t>nom_client</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>nom_client</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>nom_salarie</t>
         </is>
@@ -541,43 +536,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45857.82422453703</v>
+        <v>45860.4481712963</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1752947213</t>
+          <t>1753173922</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>876</v>
       </c>
       <c r="F2" t="n">
-        <v>51</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>URO / EAU POUR IRRIGATION</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="G2" t="n">
+        <v>613.2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6118001230068</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -588,54 +579,45 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>mohamed</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>pharma</t>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45857.46604166667</v>
+        <v>45860.4481712963</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1752916266</t>
+          <t>1753173922</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>77.2</v>
       </c>
       <c r="F3" t="n">
-        <v>51</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>URO / EAU POUR IRRIGATION</t>
-        </is>
+        <v>77.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.04</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6118001230068</t>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -644,52 +626,47 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45857.44001157407</v>
+        <v>45860.44390046296</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1752914017</t>
+          <t>1753173553</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>51</v>
+        <v>876</v>
       </c>
       <c r="F4" t="n">
-        <v>51</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>URO / EAU POUR IRRIGATION</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="G4" t="n">
+        <v>613.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6118001230068</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -697,53 +674,52 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45779.71997685185</v>
+        <v>45860.43990740741</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1746199006</t>
+          <t>1753173208</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>876</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>AMEP 10</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="G5" t="n">
+        <v>613.2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6118000081784</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>9</v>
-      </c>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -754,54 +730,45 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>mohamed</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>pharma</t>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45777.80731481482</v>
+        <v>45859.71325231482</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1746033752</t>
+          <t>1753110425</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>19.9</v>
+        <v>77.2</v>
       </c>
       <c r="F6" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ADO</t>
-        </is>
+        <v>77.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54.04</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6118000092445</t>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>14</v>
-      </c>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -812,54 +779,45 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>mohamed</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pharma</t>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45777.79658564815</v>
+        <v>45859.70931712963</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1746032825</t>
+          <t>1753110085</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9</v>
+        <v>876</v>
       </c>
       <c r="F7" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ADO</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="G7" t="n">
+        <v>613.2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6118000092445</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>14</v>
-      </c>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -870,54 +828,45 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>mohamed</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>pharma</t>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45777.79174768519</v>
+        <v>45859.70836805556</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1746032407</t>
+          <t>1753110003</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>77.2</v>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Artyx 15 mg /20</t>
-        </is>
+        <v>77.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>54.04</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6118000340782</t>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -928,54 +877,45 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>mohamed</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>pharma</t>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45777.78403935185</v>
+        <v>45859.70642361111</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1746031741</t>
+          <t>1753109835</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>37.5</v>
       </c>
       <c r="F9" t="n">
-        <v>72</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Artyx 15 mg /20</t>
-        </is>
+        <v>37.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6118000340782</t>
+          <t>ACCUPRIL 5 MG, Comprimé sécable</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+          <t>6118001170371</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -984,52 +924,47 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45777.7834375</v>
+        <v>45859.70642361111</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1746031689</t>
+          <t>1753109835</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>876</v>
       </c>
       <c r="F10" t="n">
-        <v>72</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Artyx 15 mg /20</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="G10" t="n">
+        <v>613.2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6118000340782</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1038,52 +973,47 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45777.78263888889</v>
+        <v>45859.70642361111</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1746031620</t>
+          <t>1753109835</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>77.2</v>
       </c>
       <c r="F11" t="n">
-        <v>72</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Artyx 15 mg /20</t>
-        </is>
+        <v>77.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>54.04</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6118000340782</t>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1092,52 +1022,47 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45777.77461805556</v>
+        <v>45859.70642361111</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1746030927</t>
+          <t>1753109835</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>72</v>
+        <v>10411</v>
       </c>
       <c r="F12" t="n">
-        <v>72</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Artyx 15 mg /20</t>
-        </is>
+        <v>10411</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7287.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6118000340782</t>
+          <t>ABIRATERONE GT 250 MG, Comprimé</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+          <t>6118000420422</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1146,52 +1071,47 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45777.7647337963</v>
+        <v>45859.70225694445</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1746030073</t>
+          <t>1753109475</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>37.5</v>
       </c>
       <c r="F13" t="n">
-        <v>72</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Artyx 15 mg /20</t>
-        </is>
+        <v>262.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26.25</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6118000340782</t>
+          <t>ACCUPRIL 5 MG, Comprimé sécable</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+          <t>6118001170371</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1199,53 +1119,52 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45777.76050925926</v>
+        <v>45859.70225694445</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1746029708</t>
+          <t>1753109475</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>77.2</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>DOLIPRANE</t>
-        </is>
+        <v>386</v>
+      </c>
+      <c r="G14" t="n">
+        <v>54.04</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6118000040361</t>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>19</v>
-      </c>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1253,53 +1172,52 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45859.69949074074</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1753109236</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>45777.75688657408</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1746029395</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
       <c r="E15" t="n">
-        <v>19.9</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ADO</t>
-        </is>
+        <v>210.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>49.07</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6118000092445</t>
+          <t>ACCUPRIL 20 MG, Comprimé enrobé sécable</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>14</v>
-      </c>
+          <t>6118001170388</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1307,53 +1225,52 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45859.69949074074</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1753109236</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>45777.75486111111</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1746029220</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
       <c r="E16" t="n">
-        <v>19.9</v>
+        <v>77.2</v>
       </c>
       <c r="F16" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ADO</t>
-        </is>
+        <v>154.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>54.04</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6118000092445</t>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>14</v>
-      </c>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1361,53 +1278,52 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45777.74635416667</v>
+        <v>45859.69949074074</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1746028485</t>
+          <t>1753109236</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>876</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>DOLIPRANE VITAMINE C</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="G17" t="n">
+        <v>613.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6118000041252</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>59</v>
-      </c>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1415,11 +1331,308 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>pharma</t>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Directeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45859.69012731482</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1753108427</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>876</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5256</v>
+      </c>
+      <c r="G18" t="n">
+        <v>613.2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ABSTRAL 200 µG, Comprimé sublingual [P] [SS]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6118001072347</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Directeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45859.69012731482</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1753108427</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>876</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3504</v>
+      </c>
+      <c r="G19" t="n">
+        <v>613.2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Directeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45859.69012731482</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1753108427</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ACCUPRIL 5 MG, Comprimé sécable</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6118001170371</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Directeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45859.69012731482</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1753108427</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ACARD 50 MG, Comprimé pelliculé</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>6118000340669</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Directeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45859.69012731482</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1753108427</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10411</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10411</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7287.7</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ABIRATERONE GT 250 MG, Comprimé</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>6118000420422</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Directeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45859.69012731482</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1753108427</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ACCUPRIL 20 MG, Comprimé enrobé sécable</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>6118001170388</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Directeur</t>
         </is>
       </c>
     </row>

--- a/rapport.xlsx
+++ b/rapport.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,36 +539,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45869.58934027778</v>
+        <v>45871.82577546296</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1753963719</t>
+          <t>1754156947</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10411</v>
+        <v>876</v>
       </c>
       <c r="F2" t="n">
-        <v>10411</v>
+        <v>876</v>
       </c>
       <c r="G2" t="n">
-        <v>8020</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ABIRATERONE GT 250 MG, Comprimé</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6118000420422</t>
+          <t>6118001072330</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -576,27 +579,23 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45869.58934027778</v>
+        <v>45871.82498842593</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1753963719</t>
+          <t>1754156879</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -609,21 +608,27 @@
         <v>876</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ABSTRAL 200 µG, Comprimé sublingual [P] [SS]</t>
+          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6118001072347</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>6118001072330</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -631,101 +636,117 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>zaiou</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45860.4481712963</v>
+        <v>45871.81694444444</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1753173922</t>
+          <t>1754156184</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>876</v>
+        <v>150.5</v>
       </c>
       <c r="F4" t="n">
-        <v>876</v>
+        <v>150.5</v>
       </c>
       <c r="G4" t="n">
-        <v>613.2</v>
+        <v>120.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
+          <t>medicament test</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6118001072330</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>X001FO0SDH</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>zaiou</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45860.4481712963</v>
+        <v>45871.81579861111</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1753173922</t>
+          <t>1754156085</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>77.2</v>
+        <v>150.5</v>
       </c>
       <c r="F5" t="n">
-        <v>77.2</v>
+        <v>150.5</v>
       </c>
       <c r="G5" t="n">
-        <v>54.04</v>
+        <v>120.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
+          <t>medicament test</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6118000340669</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>X001FO0SDH</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -734,20 +755,20 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45860.44390046296</v>
+        <v>45871.48908564815</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1753173553</t>
+          <t>1754127857</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -760,18 +781,10 @@
         <v>876</v>
       </c>
       <c r="G6" t="n">
-        <v>613.2</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6118001072330</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -782,25 +795,25 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>zaiou</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45860.43990740741</v>
+        <v>45871.48851851852</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1753173208</t>
+          <t>1754127808</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -813,18 +826,10 @@
         <v>876</v>
       </c>
       <c r="G7" t="n">
-        <v>613.2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>6118001072330</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -836,44 +841,36 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45859.71325231482</v>
+        <v>45871.4874537037</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1753110425</t>
+          <t>1754127716</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>77.2</v>
+        <v>876</v>
       </c>
       <c r="F8" t="n">
-        <v>77.2</v>
+        <v>876</v>
       </c>
       <c r="G8" t="n">
-        <v>54.04</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>6118000340669</t>
-        </is>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -882,47 +879,43 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>zaiou</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45859.70931712963</v>
+        <v>45871.46059027778</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1753110085</t>
+          <t>1754125395</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>876</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>876</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>613.2</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>6118001072330</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -934,44 +927,36 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45859.70836805556</v>
+        <v>45870.80697916666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1753110003</t>
+          <t>1754068923</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>77.2</v>
+        <v>4.4</v>
       </c>
       <c r="F10" t="n">
-        <v>77.2</v>
+        <v>4.4</v>
       </c>
       <c r="G10" t="n">
-        <v>54.04</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>6118000340669</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -983,44 +968,36 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45859.70642361111</v>
+        <v>45870.80542824074</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1753109835</t>
+          <t>1754068789</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>37.5</v>
+        <v>876</v>
       </c>
       <c r="F11" t="n">
-        <v>37.5</v>
+        <v>876</v>
       </c>
       <c r="G11" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ACCUPRIL 5 MG, Comprimé sécable</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>6118001170371</t>
-        </is>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1032,42 +1009,42 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45859.70642361111</v>
+        <v>45869.55077546297</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1753109835</t>
+          <t>1753960387</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>876</v>
+        <v>18.4</v>
       </c>
       <c r="F12" t="n">
-        <v>876</v>
+        <v>36.8</v>
       </c>
       <c r="G12" t="n">
-        <v>613.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
+          <t>APAZIDE 200 MG, Gélule</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6118001072330</t>
+          <t>6118000040064</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1081,44 +1058,36 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45859.70642361111</v>
+        <v>45869.53016203704</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1753109835</t>
+          <t>1753958606</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>77.2</v>
+        <v>20.6</v>
       </c>
       <c r="F13" t="n">
-        <v>77.2</v>
+        <v>20.6</v>
       </c>
       <c r="G13" t="n">
-        <v>54.04</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>6118000340669</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1130,33 +1099,33 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45859.70642361111</v>
+        <v>45869.52987268518</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1753109835</t>
+          <t>1753958581</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>10411</v>
+        <v>20.6</v>
       </c>
       <c r="F14" t="n">
-        <v>10411</v>
+        <v>20.6</v>
       </c>
       <c r="G14" t="n">
-        <v>7287.7</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1171,42 +1140,42 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45859.70225694445</v>
+        <v>45869.48640046296</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1753109475</t>
+          <t>1753954825</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>77.2</v>
+        <v>43.3</v>
       </c>
       <c r="F15" t="n">
-        <v>386</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>54.04</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
+          <t>ADO 1000 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6118000340669</t>
+          <t>6118000092469</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1217,49 +1186,45 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45859.70225694445</v>
+        <v>45869.48546296296</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1753109475</t>
+          <t>1753954744</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>37.5</v>
+        <v>43.3</v>
       </c>
       <c r="F16" t="n">
-        <v>262.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ACCUPRIL 5 MG, Comprimé sécable</t>
+          <t>ADO 1000 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6118001170371</t>
+          <t>6118000092469</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1270,49 +1235,45 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45859.69949074074</v>
+        <v>45869.48449074074</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1753109236</t>
+          <t>1753954660</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>77.2</v>
+        <v>43.3</v>
       </c>
       <c r="F17" t="n">
-        <v>154.4</v>
+        <v>129.9</v>
       </c>
       <c r="G17" t="n">
-        <v>54.04</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
+          <t>ADO 1000 MG, Comprimé pelliculé</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6118000340669</t>
+          <t>6118000092469</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1323,49 +1284,45 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45859.69949074074</v>
+        <v>45868.24498842593</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1753109236</t>
+          <t>1753879967</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>876</v>
+        <v>28.8</v>
       </c>
       <c r="F18" t="n">
-        <v>876</v>
+        <v>57.6</v>
       </c>
       <c r="G18" t="n">
-        <v>613.2</v>
+        <v>15</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
+          <t>ASPEGIC AD 1000 MG, Poudre en sachet</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6118001072330</t>
+          <t>6118000061083</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1376,49 +1333,45 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45859.69949074074</v>
+        <v>45868.23777777778</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1753109236</t>
+          <t>1753879344</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>70.09999999999999</v>
+        <v>28.8</v>
       </c>
       <c r="F19" t="n">
-        <v>210.3</v>
+        <v>57.6</v>
       </c>
       <c r="G19" t="n">
-        <v>49.07</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ACCUPRIL 20 MG, Comprimé enrobé sécable</t>
+          <t>ASPEGIC AD 1000 MG, Poudre en sachet</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6118001170388</t>
+          <t>6118000061083</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1429,49 +1382,45 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45859.69012731482</v>
+        <v>45868.21790509259</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1753108427</t>
+          <t>1753877627</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>37.5</v>
+        <v>28.8</v>
       </c>
       <c r="F20" t="n">
-        <v>75</v>
+        <v>57.6</v>
       </c>
       <c r="G20" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ACCUPRIL 5 MG, Comprimé sécable</t>
+          <t>ASPEGIC AD 1000 MG, Poudre en sachet</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6118001170371</t>
+          <t>6118000061083</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1485,244 +1434,7 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45859.69012731482</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1753108427</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>308.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>54.04</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ACARD 50 MG, Comprimé pelliculé</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>6118000340669</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45859.69012731482</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1753108427</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10411</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10411</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7287.7</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45859.69012731482</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1753108427</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>49.07</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ACCUPRIL 20 MG, Comprimé enrobé sécable</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>6118001170388</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45859.69012731482</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1753108427</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>6</v>
-      </c>
-      <c r="E24" t="n">
-        <v>876</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5256</v>
-      </c>
-      <c r="G24" t="n">
-        <v>613.2</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ABSTRAL 200 µG, Comprimé sublingual [P] [SS]</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>6118001072347</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45859.69012731482</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1753108427</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>876</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3504</v>
-      </c>
-      <c r="G25" t="n">
-        <v>613.2</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ABSTRAL 100 µG, Comprimé sublingual [P] [SS]</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>6118001072330</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>admin</t>
+          <t>admin_pharma</t>
         </is>
       </c>
     </row>
